--- a/LeapLog/bin/Debug/netcoreapp3.1/officellc.xlsx
+++ b/LeapLog/bin/Debug/netcoreapp3.1/officellc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/139cebc20cf1c155/01LoneStar/2020Spring/INEW2332Project/NewGit/leaplog/LeapLog/bin/Debug/netcoreapp3.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/139cebc20cf1c155/01LoneStar/2020Spring/INEW2332Project/GitRepo/leaplog/LeapLog/bin/Debug/netcoreapp3.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{13832AEF-2911-48F1-892F-28A57BC733D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A51AAB62-6AB3-4EE5-A715-B9ED6AFFB43C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1736B92D-3029-4DD0-A8CB-C0A49D1EA45C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="2835" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{184977B9-3A58-4782-99CD-F88BDEAC5A51}"/>
+    <workbookView xWindow="4245" yWindow="2580" windowWidth="21600" windowHeight="12735" xr2:uid="{CB20BC4A-5EF6-41FF-8867-565DB65DF380}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Owner Equity" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -100,9 +100,21 @@
     <t>Total Liabilities and Owners Equity</t>
   </si>
   <si>
+    <t>Revenue Account Name</t>
+  </si>
+  <si>
+    <t>Revenue Account Balance</t>
+  </si>
+  <si>
     <t>Total Revenue</t>
   </si>
   <si>
+    <t>Expense Account Name</t>
+  </si>
+  <si>
+    <t>Expense Account Balance</t>
+  </si>
+  <si>
     <t>Total Expense</t>
   </si>
   <si>
@@ -118,37 +130,10 @@
     <t>Final Capital</t>
   </si>
   <si>
-    <t>Comp</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t>Liability</t>
-  </si>
-  <si>
-    <t>HQ</t>
-  </si>
-  <si>
-    <t>Owners Equity</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Dumbells</t>
+    <t>qa</t>
   </si>
   <si>
     <t>Expense</t>
-  </si>
-  <si>
-    <t>Gym</t>
   </si>
   <si>
     <t>Withdrawal</t>
@@ -183,7 +168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="20"/>
+        <fgColor rgb="FF00008B"/>
         <bgColor indexed="24"/>
       </patternFill>
     </fill>
@@ -231,15 +216,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -556,10 +540,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E54B90-125F-4BBE-BE0D-7F07D0D19BC0}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E384EDB-7F57-479F-B94D-18AEDD511BDE}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -570,31 +554,20 @@
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
         <v>30</v>
       </c>
     </row>
@@ -604,43 +577,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A287C1DF-8BF9-4C1C-AB7E-65D32ECB93C0}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4975764E-9F88-444A-A811-58F833CB1C8A}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3">
-        <v>145</v>
-      </c>
-      <c r="C2" s="3">
-        <v>115</v>
-      </c>
-      <c r="D2" s="3">
-        <v>30</v>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1">
+        <v>112</v>
+      </c>
+      <c r="G2" s="1">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-112</v>
       </c>
     </row>
   </sheetData>
@@ -649,8 +646,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A80BCEB-0084-4EF3-986C-72321B6BF0BD}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864172D6-B4CE-4BD7-8FDE-2209B6DB4138}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,48 +663,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4">
         <v>112</v>
       </c>
-      <c r="D2" s="3">
-        <v>112</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3">
-        <v>112</v>
-      </c>
-      <c r="G2" s="3">
-        <v>112</v>
-      </c>
+      <c r="G2" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -715,16 +719,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FEC61B-7F11-41EE-80B9-231CC83E76BC}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F2409E-125A-4DED-A81E-4CF3C3B11FCF}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -732,99 +736,74 @@
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4">
         <v>112</v>
       </c>
-      <c r="E5">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>112</v>
+      </c>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="H2" s="4">
         <v>112</v>
       </c>
-      <c r="G5">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>145</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>145</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>-145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>115</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>115</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>115</v>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -833,17 +812,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E470E8AA-2E83-4991-B540-B39315D33AF1}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C756F76A-3DEA-49EB-B0F7-BDC896657B84}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -851,101 +830,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1">
         <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
-        <v>43958</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1">
-        <v>145</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
-        <v>43958</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3">
-        <v>115</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
